--- a/Platine_2.xlsx
+++ b/Platine_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms-muc\Anhaenger_Steckdosentester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\Anhaenger_Steckdosentester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{955464A9-AC1D-4A1A-B736-1355D6841655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1530E-7E67-43AB-BC05-39FC02108D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1275" windowWidth="28800" windowHeight="19200"/>
+    <workbookView xWindow="-23910" yWindow="3390" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Platine_2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Qty</t>
   </si>
@@ -40,34 +40,172 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ABSTRAHLWINKEL</t>
-  </si>
-  <si>
     <t>ARTIKEL_NR</t>
   </si>
   <si>
     <t>CHIP-TECHNOLOGY</t>
   </si>
   <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
     <t>DATASHEET-URL</t>
   </si>
   <si>
+    <t>DIGIKEY_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>DOMINANT-WAVELENGTH</t>
+  </si>
+  <si>
     <t>EMITTING-COLOR</t>
   </si>
   <si>
-    <t>I-V-TYP</t>
-  </si>
-  <si>
-    <t>LAMDA-DOM-TYP</t>
-  </si>
-  <si>
-    <t>LAMDA-PEAK-TYP</t>
+    <t>FORWARD-VOLTAGE</t>
+  </si>
+  <si>
+    <t>LUMINOUS-INTENSITY</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
   </si>
   <si>
     <t>PART-NUMBER</t>
   </si>
   <si>
-    <t>V-F-TYP</t>
+    <t>PEAK-WAVELENGTH</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>VIEWING-ANGLE</t>
+  </si>
+  <si>
+    <t>151054GS03000</t>
+  </si>
+  <si>
+    <t>WL-TMRW_5MM_151054GS03000_WITHOUTSTOPPER</t>
+  </si>
+  <si>
+    <t>WL-TMRW_5MM</t>
+  </si>
+  <si>
+    <t>LADELEITUNG, NEBELSCHLUSSLEUCHTE, RUECKFAHRLEUCHTE, STROMVERSORGUNG</t>
+  </si>
+  <si>
+    <t>WL-TMRW THT Mono-color Round Waterclear</t>
+  </si>
+  <si>
+    <t>InGaN</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/redexpert/spec/151054GS03000?ae</t>
+  </si>
+  <si>
+    <t>522nm</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>3.4V</t>
+  </si>
+  <si>
+    <t>10000mcd</t>
+  </si>
+  <si>
+    <t>515nm</t>
+  </si>
+  <si>
+    <t>30Â°</t>
+  </si>
+  <si>
+    <t>151054RS03000</t>
+  </si>
+  <si>
+    <t>WL-TMRW_5MM_151054RS03000_WITHOUTSTOPPER</t>
+  </si>
+  <si>
+    <t>BREMSLEUCHTE, LICHT_LINKS, LICHT_RECHTS</t>
+  </si>
+  <si>
+    <t>AlInGaP</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/redexpert/spec/151054RS03000?ae</t>
+  </si>
+  <si>
+    <t>623nm</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>1.9V</t>
+  </si>
+  <si>
+    <t>5000mcd</t>
+  </si>
+  <si>
+    <t>631nm</t>
+  </si>
+  <si>
+    <t>151054YS04500</t>
+  </si>
+  <si>
+    <t>WL-TMRW_5MM_151054YS04500_WITHOUTSTOPPER</t>
+  </si>
+  <si>
+    <t>BLINKER_LINKS, BLINKER_RECHTS</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/redexpert/spec/151054YS04500?ae</t>
+  </si>
+  <si>
+    <t>590nm</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>2.1V</t>
+  </si>
+  <si>
+    <t>1500mcd</t>
+  </si>
+  <si>
+    <t>592nm</t>
+  </si>
+  <si>
+    <t>45Â°</t>
+  </si>
+  <si>
+    <t>1N4004</t>
+  </si>
+  <si>
+    <t>DO-41</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 400V 1A DO41</t>
+  </si>
+  <si>
+    <t>PCBLayout.com</t>
+  </si>
+  <si>
+    <t>1N4004MSCT-ND</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
   </si>
   <si>
     <t>R-EU_0204/7</t>
@@ -89,87 +227,6 @@
   </si>
   <si>
     <t>DTF13-12PA Connector System : Draht-an-Leiterplatte, Kabel-an-GerÃ¤t</t>
-  </si>
-  <si>
-    <t>Gelb</t>
-  </si>
-  <si>
-    <t>WL-TMRW_5MM_151054GS03000_WITHOUTSTOPPER</t>
-  </si>
-  <si>
-    <t>WL-TMRW_5MM</t>
-  </si>
-  <si>
-    <t>BLINKER_LINKS, BLINKER_RECHTS</t>
-  </si>
-  <si>
-    <t>WL-TMRW THT Mono-color Round Waterclear</t>
-  </si>
-  <si>
-    <t>30Â°</t>
-  </si>
-  <si>
-    <t>InGaN</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/catalog/datasheet/151054GS03000.pdf</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>10000mcd</t>
-  </si>
-  <si>
-    <t>522nm</t>
-  </si>
-  <si>
-    <t>515nm</t>
-  </si>
-  <si>
-    <t>151054GS03000</t>
-  </si>
-  <si>
-    <t>3.4V</t>
-  </si>
-  <si>
-    <t>GrÃ¼n</t>
-  </si>
-  <si>
-    <t>LADELEITUNG, NEBELSCHLUSSLEUCHTE, RUECKFAHRLEUCHTE, STROMVERSORGUNG</t>
-  </si>
-  <si>
-    <t>Rot</t>
-  </si>
-  <si>
-    <t>WL-TMRW_5MM_151054RS03000_WITHOUTSTOPPER</t>
-  </si>
-  <si>
-    <t>BREMSLEUCHTE, LICHT_LINKS, LICHT_RECHTS</t>
-  </si>
-  <si>
-    <t>AlInGaP</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/catalog/datasheet/151054RS03000.pdf</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>5000mcd</t>
-  </si>
-  <si>
-    <t>623nm</t>
-  </si>
-  <si>
-    <t>631nm</t>
-  </si>
-  <si>
-    <t>151054RS03000</t>
-  </si>
-  <si>
-    <t>1.9V</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,189 +1122,251 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>680</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>522012</v>
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
+      <c r="H4" t="s">
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>680</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <v>522012</v>
       </c>
     </row>
   </sheetData>
